--- a/xlsx/國際標準名稱識別碼_intext.xlsx
+++ b/xlsx/國際標準名稱識別碼_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國際標準化組織</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_國際標準名稱識別碼</t>
+    <t>体育运动_体育运动_明成祖_國際標準名稱識別碼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ORCID</t>
@@ -2739,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2884,7 +2884,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -2942,7 +2942,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
